--- a/mean_test_weights_balance/mean_test_weights_balance_tmd_refined.xlsx
+++ b/mean_test_weights_balance/mean_test_weights_balance_tmd_refined.xlsx
@@ -85,7 +85,7 @@
     <t>IVGAGLGTGA</t>
   </si>
   <si>
-    <t>EGPGSPPPYK</t>
+    <t>GSPPPYKMIQ</t>
   </si>
   <si>
     <t>LFYLRGDRGQ</t>
@@ -115,7 +115,7 @@
     <t>IIAILLCIIILLILVLMFVVWM</t>
   </si>
   <si>
-    <t>MIQTIGLSVGAAVAYIIAVLGLMFYC</t>
+    <t>TIGLSVGAAVAYIIAVLGLMFYC</t>
   </si>
   <si>
     <t>ILVICLIAVMVVFIILVIGVCTCCHPL</t>
@@ -712,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D7">
         <v>726</v>
